--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_18_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_18_8.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9999999999999704</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9931302213219543</v>
       </c>
       <c r="F2" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9985374159699815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H2" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I2" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>4.704166734123703e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>0.535934235433608</v>
+        <v>0.02948530943641281</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.0147426549526495</v>
       </c>
       <c r="L2" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N2" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P2" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q2" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_22</t>
+          <t>model_18_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960872955830927</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962299558418323</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9999999991720099</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9931215322302983</v>
       </c>
       <c r="F3" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9985355654268434</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.0261642724522059</v>
       </c>
       <c r="H3" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362611223560446</v>
       </c>
       <c r="I3" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>1.313099247874674e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>0.535934235433608</v>
+        <v>0.02952260329524073</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.01476130818446282</v>
       </c>
       <c r="L3" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2816664033211989</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617537401490485</v>
       </c>
       <c r="N3" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002845603212296</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686399317435959</v>
       </c>
       <c r="P3" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2867208913799</v>
       </c>
       <c r="Q3" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7626429088673</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_21</t>
+          <t>model_18_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9974994021439642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7876612914833085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9996984230382521</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9845775297445885</v>
       </c>
       <c r="F4" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9964793069778027</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.01672150937750637</v>
       </c>
       <c r="H4" t="n">
-        <v>1.561384598994899</v>
+        <v>1.419909921580966</v>
       </c>
       <c r="I4" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.004782671741625487</v>
       </c>
       <c r="J4" t="n">
-        <v>0.535934235433608</v>
+        <v>0.06619373477167766</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.03548812331814958</v>
       </c>
       <c r="L4" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2061278601975516</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1293116753333061</v>
       </c>
       <c r="N4" t="n">
-        <v>1.008717366834089</v>
+        <v>1.001818616622572</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1348167410643151</v>
       </c>
       <c r="P4" t="n">
-        <v>236.9754527215351</v>
+        <v>122.1821188032514</v>
       </c>
       <c r="Q4" t="n">
-        <v>379.5839242311146</v>
+        <v>191.6580408207388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_20</t>
+          <t>model_18_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9973293440315424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7826843903903528</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9992186076518961</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9788356689365749</v>
       </c>
       <c r="F5" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9948793883558675</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.01785868875831596</v>
       </c>
       <c r="H5" t="n">
-        <v>1.561384598994899</v>
+        <v>1.453190482106084</v>
       </c>
       <c r="I5" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.01239200461712262</v>
       </c>
       <c r="J5" t="n">
-        <v>0.535934235433608</v>
+        <v>0.09083798469578902</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.05161509292222068</v>
       </c>
       <c r="L5" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1597972852880511</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1336364050635752</v>
       </c>
       <c r="N5" t="n">
-        <v>1.008717366834089</v>
+        <v>1.001942295249787</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1393255834926264</v>
       </c>
       <c r="P5" t="n">
-        <v>236.9754527215351</v>
+        <v>122.0505302480329</v>
       </c>
       <c r="Q5" t="n">
-        <v>379.5839242311146</v>
+        <v>191.5264522655203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_19</t>
+          <t>model_18_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9970126044194659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7800122662925651</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9988608174964428</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.975608074814857</v>
       </c>
       <c r="F6" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9939107856620112</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.01997672800272298</v>
       </c>
       <c r="H6" t="n">
-        <v>1.561384598994899</v>
+        <v>1.47105898825199</v>
       </c>
       <c r="I6" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.01806615444607481</v>
       </c>
       <c r="J6" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1046909217224406</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.06137848087713415</v>
       </c>
       <c r="L6" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1341146379778445</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1413390533530028</v>
       </c>
       <c r="N6" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002172651331297</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1473561494664151</v>
       </c>
       <c r="P6" t="n">
-        <v>236.9754527215351</v>
+        <v>121.8263745655999</v>
       </c>
       <c r="Q6" t="n">
-        <v>379.5839242311146</v>
+        <v>191.3022965830873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_18</t>
+          <t>model_18_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9967944391704008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7786281574908561</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9986473346479784</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9739060967973786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9933804718849163</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.0214356000277805</v>
       </c>
       <c r="H7" t="n">
-        <v>1.561384598994899</v>
+        <v>1.480314530182253</v>
       </c>
       <c r="I7" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02145175253935933</v>
       </c>
       <c r="J7" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1119958657171717</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.06672397410821145</v>
       </c>
       <c r="L7" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1206138392244887</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1464090162106846</v>
       </c>
       <c r="N7" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002331316966981</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1526419511392183</v>
       </c>
       <c r="P7" t="n">
-        <v>236.9754527215351</v>
+        <v>121.6854043728509</v>
       </c>
       <c r="Q7" t="n">
-        <v>379.5839242311146</v>
+        <v>191.1613263903383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_17</t>
+          <t>model_18_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9966701651817411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7779238682112026</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9985312588224784</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9730330824090269</v>
       </c>
       <c r="F8" t="n">
-        <v>0.970374796413045</v>
+        <v>0.993103321871706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02226662076217639</v>
       </c>
       <c r="H8" t="n">
-        <v>1.561384598994899</v>
+        <v>1.485024115838249</v>
       </c>
       <c r="I8" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02329258470136278</v>
       </c>
       <c r="J8" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1157428713470992</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.06951760984538577</v>
       </c>
       <c r="L8" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1136921445843916</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1492200414226467</v>
       </c>
       <c r="N8" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002421698049643</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.155572647514078</v>
       </c>
       <c r="P8" t="n">
-        <v>236.9754527215351</v>
+        <v>121.6093330973774</v>
       </c>
       <c r="Q8" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0852551148648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_16</t>
+          <t>model_18_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.996604170817723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7775685652814589</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.998470831900901</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9725909097092359</v>
       </c>
       <c r="F9" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9929616281925934</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02270792537824148</v>
       </c>
       <c r="H9" t="n">
-        <v>1.561384598994899</v>
+        <v>1.487400028165465</v>
       </c>
       <c r="I9" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02425088777791891</v>
       </c>
       <c r="J9" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1176406906930608</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.0709458635232979</v>
       </c>
       <c r="L9" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1101958738980303</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1506914907293755</v>
       </c>
       <c r="N9" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002469693950747</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1571067394641143</v>
       </c>
       <c r="P9" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5700825596462</v>
       </c>
       <c r="Q9" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0460045771336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_15</t>
+          <t>model_18_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965702345294772</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7773901641671646</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984399855435457</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9723686578488977</v>
       </c>
       <c r="F10" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928900530671608</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02293485749400345</v>
       </c>
       <c r="H10" t="n">
-        <v>1.561384598994899</v>
+        <v>1.488592997238214</v>
       </c>
       <c r="I10" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02474007634457868</v>
       </c>
       <c r="J10" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1185946027740762</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07166733138824648</v>
       </c>
       <c r="L10" t="n">
-        <v>1.593936537812531</v>
+        <v>0.108435216724185</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1514425881118104</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002494374887653</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1578898126171053</v>
       </c>
       <c r="P10" t="n">
-        <v>236.9754527215351</v>
+        <v>121.55019472885</v>
       </c>
       <c r="Q10" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0261167463374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_14</t>
+          <t>model_18_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.996553028436213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7773007626028907</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984244237259672</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.972257174837597</v>
       </c>
       <c r="F11" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928540776401498</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02304991471888877</v>
       </c>
       <c r="H11" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489190825910169</v>
       </c>
       <c r="I11" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02498686928509252</v>
       </c>
       <c r="J11" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1190730914182022</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07202995896814036</v>
       </c>
       <c r="L11" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1075504110282323</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1518219836482476</v>
       </c>
       <c r="N11" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002506888410027</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1582853598069857</v>
       </c>
       <c r="P11" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5401864187552</v>
       </c>
       <c r="Q11" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0161084362427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_13</t>
+          <t>model_18_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965443279084425</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.777255977442828</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984165905406979</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9722010626520182</v>
       </c>
       <c r="F12" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928359640279015</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02310809518815194</v>
       </c>
       <c r="H12" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489490304481725</v>
       </c>
       <c r="I12" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02511109480158222</v>
       </c>
       <c r="J12" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1193139267103537</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07221254180088101</v>
       </c>
       <c r="L12" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1071094032119841</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1520134704167757</v>
       </c>
       <c r="N12" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002513216066587</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1584849985636823</v>
       </c>
       <c r="P12" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5351445635979</v>
       </c>
       <c r="Q12" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0110665810854</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_23</t>
+          <t>model_18_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965400224287321</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772336380340006</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984126854154816</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721734443020629</v>
       </c>
       <c r="F13" t="n">
-        <v>0.970374796413045</v>
+        <v>0.992827019188369</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02313688595080065</v>
       </c>
       <c r="H13" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489639688211417</v>
       </c>
       <c r="I13" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.0251730256994569</v>
       </c>
       <c r="J13" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1194324655502091</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07230270460871183</v>
       </c>
       <c r="L13" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1068876877916146</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1521081390024894</v>
       </c>
       <c r="N13" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002516347324558</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1585836973870808</v>
       </c>
       <c r="P13" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5326542811362</v>
       </c>
       <c r="Q13" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0085762986236</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965378166519169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772225055093317</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984106993863249</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721593943670466</v>
       </c>
       <c r="F14" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928224415606892</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02315163599051998</v>
       </c>
       <c r="H14" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489714131455139</v>
       </c>
       <c r="I14" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02520452189024928</v>
       </c>
       <c r="J14" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1194927683199095</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07234884649457976</v>
       </c>
       <c r="L14" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1067745178113183</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1521566166504762</v>
       </c>
       <c r="N14" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002517951525879</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.158634238828905</v>
       </c>
       <c r="P14" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5313796636198</v>
       </c>
       <c r="Q14" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0073016811072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_10</t>
+          <t>model_18_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965367459706631</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772168716192378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984097314309547</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721524850926905</v>
       </c>
       <c r="F15" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928202207123311</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02315879564099458</v>
       </c>
       <c r="H15" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489751805304138</v>
       </c>
       <c r="I15" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.0252198725747626</v>
       </c>
       <c r="J15" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195224231460575</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07237123235438202</v>
       </c>
       <c r="L15" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1067192338375308</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1521801420718044</v>
       </c>
       <c r="N15" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002518730203154</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586587657761235</v>
       </c>
       <c r="P15" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5307612586273</v>
       </c>
       <c r="Q15" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0066832761147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_9</t>
+          <t>model_18_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965362035874277</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772140649115526</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984092339753362</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721489297791994</v>
       </c>
       <c r="F16" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928190959799496</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316242256018722</v>
       </c>
       <c r="H16" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489770573771353</v>
       </c>
       <c r="I16" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02522776166189709</v>
       </c>
       <c r="J16" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195376826650811</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07238256950908621</v>
       </c>
       <c r="L16" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1066934581916886</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.152192058137694</v>
       </c>
       <c r="N16" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519124663689</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586711891336076</v>
       </c>
       <c r="P16" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5304480614066</v>
       </c>
       <c r="Q16" t="n">
-        <v>379.5839242311146</v>
+        <v>191.006370078894</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_8</t>
+          <t>model_18_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965359391140346</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772126773328483</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984090012375628</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721473105379852</v>
       </c>
       <c r="F17" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928185478329349</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316419109498473</v>
       </c>
       <c r="H17" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489779852516538</v>
       </c>
       <c r="I17" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02523145262146406</v>
       </c>
       <c r="J17" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195446325000746</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07238809475901006</v>
       </c>
       <c r="L17" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1066778117958235</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1521978682340352</v>
       </c>
       <c r="N17" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519317007975</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586772465777786</v>
       </c>
       <c r="P17" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5302953599973</v>
       </c>
       <c r="Q17" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0062173774847</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_7</t>
+          <t>model_18_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965359073674805</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772125157064387</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984090014179557</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721469558089653</v>
       </c>
       <c r="F18" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928184817988804</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316440338433748</v>
       </c>
       <c r="H18" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489780933313083</v>
       </c>
       <c r="I18" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02523144976063509</v>
       </c>
       <c r="J18" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195461550083547</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07238876037360722</v>
       </c>
       <c r="L18" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1066812962013477</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1521985656448098</v>
       </c>
       <c r="N18" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519340096378</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586779736787737</v>
       </c>
       <c r="P18" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5302770309843</v>
       </c>
       <c r="Q18" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0061990484717</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_6</t>
+          <t>model_18_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965357895157025</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772119551847907</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984088715374431</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721462925136908</v>
       </c>
       <c r="F19" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928182374621368</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316519145971942</v>
       </c>
       <c r="H19" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489784681523924</v>
       </c>
       <c r="I19" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02523350951962493</v>
       </c>
       <c r="J19" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195490018928517</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07239122325589546</v>
       </c>
       <c r="L19" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1066738280696546</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1522011545939104</v>
       </c>
       <c r="N19" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519425806762</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586806728447974</v>
       </c>
       <c r="P19" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5302089902095</v>
       </c>
       <c r="Q19" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0061310076969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_5</t>
+          <t>model_18_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965357104254733</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772116247540415</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984088088695142</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721458117203559</v>
       </c>
       <c r="F20" t="n">
-        <v>0.970374796413045</v>
+        <v>0.992818074138534</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316572033644707</v>
       </c>
       <c r="H20" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489786891115866</v>
       </c>
       <c r="I20" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02523450336255825</v>
       </c>
       <c r="J20" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195510654731965</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07239286953636441</v>
       </c>
       <c r="L20" t="n">
-        <v>1.593936537812531</v>
+        <v>0.106669639714089</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1522028920107863</v>
       </c>
       <c r="N20" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519483326928</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586824842271066</v>
       </c>
       <c r="P20" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5301633294006</v>
       </c>
       <c r="Q20" t="n">
-        <v>379.5839242311146</v>
+        <v>191.006085346888</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_4</t>
+          <t>model_18_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965356973198028</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772114885930961</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984087694284434</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721457786895854</v>
       </c>
       <c r="F21" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928180463228534</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316580797412523</v>
       </c>
       <c r="H21" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489787801624734</v>
       </c>
       <c r="I21" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02523512885362338</v>
       </c>
       <c r="J21" t="n">
-        <v>0.535934235433608</v>
+        <v>0.119551207242318</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07239314991477207</v>
       </c>
       <c r="L21" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1066653699659793</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1522031799080598</v>
       </c>
       <c r="N21" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519492858325</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586827843807631</v>
       </c>
       <c r="P21" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5301557632631</v>
       </c>
       <c r="Q21" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0060777807505</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_3</t>
+          <t>model_18_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965356663144855</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772112669483977</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984087816598068</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721454905489487</v>
       </c>
       <c r="F22" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928179820444274</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316601530682492</v>
       </c>
       <c r="H22" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489789283763854</v>
       </c>
       <c r="I22" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02523493487794229</v>
       </c>
       <c r="J22" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195524439511309</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07239379783286427</v>
       </c>
       <c r="L22" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1066662680211151</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1522038610115556</v>
       </c>
       <c r="N22" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519515407647</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586834944802448</v>
       </c>
       <c r="P22" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5301378634539</v>
       </c>
       <c r="Q22" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0060598809413</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_2</t>
+          <t>model_18_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965356663144855</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772112669483977</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984087816598068</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721454905489487</v>
       </c>
       <c r="F23" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928179820444274</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316601530682492</v>
       </c>
       <c r="H23" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489789283763854</v>
       </c>
       <c r="I23" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02523493487794229</v>
       </c>
       <c r="J23" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195524439511309</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07239379783286427</v>
       </c>
       <c r="L23" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1066662680211151</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1522038610115556</v>
       </c>
       <c r="N23" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519515407647</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586834944802448</v>
       </c>
       <c r="P23" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5301378634539</v>
       </c>
       <c r="Q23" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0060598809413</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_1</t>
+          <t>model_18_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965356663144855</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772112669483977</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984087816598068</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721454905489487</v>
       </c>
       <c r="F24" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928179820444274</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316601530682492</v>
       </c>
       <c r="H24" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489789283763854</v>
       </c>
       <c r="I24" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02523493487794229</v>
       </c>
       <c r="J24" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195524439511309</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07239379783286427</v>
       </c>
       <c r="L24" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1066662680211151</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1522038610115556</v>
       </c>
       <c r="N24" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519515407647</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586834944802448</v>
       </c>
       <c r="P24" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5301378634539</v>
       </c>
       <c r="Q24" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0060598809413</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_11</t>
+          <t>model_18_8_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965356663144855</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772112669483977</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984087816598068</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721454905489487</v>
       </c>
       <c r="F25" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928179820444274</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316601530682492</v>
       </c>
       <c r="H25" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489789283763854</v>
       </c>
       <c r="I25" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02523493487794229</v>
       </c>
       <c r="J25" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195524439511309</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07239379783286427</v>
       </c>
       <c r="L25" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1066662680211151</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1522038610115556</v>
       </c>
       <c r="N25" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519515407647</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586834944802448</v>
       </c>
       <c r="P25" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5301378634539</v>
       </c>
       <c r="Q25" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0060598809413</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9965356663144855</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7772112669483977</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999975131159027</v>
+        <v>0.9984087816598068</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9514468428675844</v>
+        <v>0.9721454905489487</v>
       </c>
       <c r="F26" t="n">
-        <v>0.970374796413045</v>
+        <v>0.9928179820444274</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02316601530682492</v>
       </c>
       <c r="H26" t="n">
-        <v>1.561384598994899</v>
+        <v>1.489789283763854</v>
       </c>
       <c r="I26" t="n">
-        <v>1.542195794870912e-05</v>
+        <v>0.02523493487794229</v>
       </c>
       <c r="J26" t="n">
-        <v>0.535934235433608</v>
+        <v>0.1195524439511309</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2679751502225034</v>
+        <v>0.07239379783286427</v>
       </c>
       <c r="L26" t="n">
-        <v>1.593936537812531</v>
+        <v>0.1066662680211151</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1522038610115556</v>
       </c>
       <c r="N26" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002519515407647</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1586834944802448</v>
       </c>
       <c r="P26" t="n">
-        <v>236.9754527215351</v>
+        <v>121.5301378634539</v>
       </c>
       <c r="Q26" t="n">
-        <v>379.5839242311146</v>
+        <v>191.0060598809413</v>
       </c>
     </row>
   </sheetData>
